--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -414,25 +414,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9979</v>
+        <v>9944</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>316.14999999999998</v>
+        <v>316.81</v>
       </c>
       <c r="D3">
-        <v>316.81</v>
+        <v>318.58999999999997</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.21</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G3" s="1">
-        <v>42605.588692129626</v>
+        <v>42606.427835648145</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -440,25 +440,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9958.0400000000009</v>
+        <v>9875.39</v>
       </c>
       <c r="B4">
-        <v>9979</v>
+        <v>9944</v>
       </c>
       <c r="C4">
-        <v>316.14999999999998</v>
+        <v>316.81</v>
       </c>
       <c r="D4">
-        <v>316.81</v>
+        <v>319</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.21</v>
+        <v>0.69</v>
       </c>
       <c r="G4" s="1">
-        <v>42605.590428240743</v>
+        <v>42606.48673611111</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +458,87 @@
         <v>0.69</v>
       </c>
       <c r="G4" s="1">
-        <v>42606.48673611111</v>
+        <v>42606.498668981483</v>
       </c>
       <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9820.09</v>
+      </c>
+      <c r="B5">
+        <v>9875.39</v>
+      </c>
+      <c r="C5">
+        <v>316.81</v>
+      </c>
+      <c r="D5">
+        <v>318.58999999999997</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42606.585590277777</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9752.33</v>
+      </c>
+      <c r="B6">
+        <v>9820.09</v>
+      </c>
+      <c r="C6">
+        <v>316.81</v>
+      </c>
+      <c r="D6">
+        <v>319</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.69</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42606.586712962962</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9697.7199999999993</v>
+      </c>
+      <c r="B7">
+        <v>9752.33</v>
+      </c>
+      <c r="C7">
+        <v>316.81</v>
+      </c>
+      <c r="D7">
+        <v>318.58999999999997</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42606.587824074071</v>
+      </c>
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9815.06</v>
+      </c>
+      <c r="B8">
+        <v>9697.7199999999993</v>
+      </c>
+      <c r="C8">
+        <v>309.02999999999997</v>
+      </c>
+      <c r="D8">
+        <v>305.29000000000002</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-1.21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42608.617951388886</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9871.99</v>
+      </c>
+      <c r="B9">
+        <v>9815.06</v>
+      </c>
+      <c r="C9">
+        <v>307.20999999999998</v>
+      </c>
+      <c r="D9">
+        <v>305.42</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42609.488981481481</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9928.26</v>
+      </c>
+      <c r="B10">
+        <v>9871.99</v>
+      </c>
+      <c r="C10">
+        <v>307.87</v>
+      </c>
+      <c r="D10">
+        <v>306.13</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42612.67291666667</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -620,6 +620,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10013.64</v>
+      </c>
+      <c r="B11">
+        <v>9928.26</v>
+      </c>
+      <c r="C11">
+        <v>305.24</v>
+      </c>
+      <c r="D11">
+        <v>307.86</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.86</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42613.765462962961</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9946.5499999999993</v>
+      </c>
+      <c r="B12">
+        <v>10013.64</v>
+      </c>
+      <c r="C12">
+        <v>307.68</v>
+      </c>
+      <c r="D12">
+        <v>305.63</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-0.67</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42614.672662037039</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9883.89</v>
+      </c>
+      <c r="B13">
+        <v>9946.5499999999993</v>
+      </c>
+      <c r="C13">
+        <v>307.95999999999998</v>
+      </c>
+      <c r="D13">
+        <v>306.02</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.63</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42615.7500462963</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,6 +698,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9842.3799999999992</v>
+      </c>
+      <c r="B14">
+        <v>9883.89</v>
+      </c>
+      <c r="C14">
+        <v>311.98</v>
+      </c>
+      <c r="D14">
+        <v>310.67</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-0.42</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42620.766134259262</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,6 +724,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9916.2000000000007</v>
+      </c>
+      <c r="B15">
+        <v>9842.3799999999992</v>
+      </c>
+      <c r="C15">
+        <v>309.95999999999998</v>
+      </c>
+      <c r="D15">
+        <v>312.3</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42621.725706018522</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9801.17</v>
+      </c>
+      <c r="B16">
+        <v>9916.2000000000007</v>
+      </c>
+      <c r="C16">
+        <v>311.35000000000002</v>
+      </c>
+      <c r="D16">
+        <v>307.73</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42622.756261574075</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,6 +776,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9516.94</v>
+      </c>
+      <c r="B17">
+        <v>9801.17</v>
+      </c>
+      <c r="C17">
+        <v>294.14</v>
+      </c>
+      <c r="D17">
+        <v>302.66000000000003</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2.9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42626.544363425928</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42634.664594907408</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10016</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>306.06</v>
+      </c>
+      <c r="F4">
+        <v>307.05</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.32</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42636.593159722222</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10044.040000000001</v>
+      </c>
+      <c r="D5">
+        <v>10016</v>
+      </c>
+      <c r="E5">
+        <v>313.07</v>
+      </c>
+      <c r="F5">
+        <v>314.81</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.539340277777</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9893.73</v>
+      </c>
+      <c r="D4">
+        <v>9970</v>
+      </c>
+      <c r="E4">
+        <v>309.77999999999997</v>
+      </c>
+      <c r="F4">
+        <v>314.52999999999997</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.53</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -445,6 +446,35 @@
         <v>-1.42</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42644.475659722222</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10033.25</v>
+      </c>
+      <c r="D4">
+        <v>9929</v>
+      </c>
+      <c r="E4">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="F4">
+        <v>313.02999999999997</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.1</v>
+      </c>
+      <c r="I4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42647.680567129632</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9988.1</v>
+      </c>
+      <c r="D5">
+        <v>10033.25</v>
+      </c>
+      <c r="E5">
+        <v>313</v>
+      </c>
+      <c r="F5">
+        <v>311.58999999999997</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-0.45</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,8 +379,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
@@ -507,6 +506,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42649.644687499997</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9931.17</v>
+      </c>
+      <c r="D6">
+        <v>9988.1</v>
+      </c>
+      <c r="E6">
+        <v>313.26998900000001</v>
+      </c>
+      <c r="F6">
+        <v>309.70001200000002</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,6 +535,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42651.513252314813</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9903.36</v>
+      </c>
+      <c r="D7">
+        <v>9931.17</v>
+      </c>
+      <c r="E7">
+        <v>307.30999800000001</v>
+      </c>
+      <c r="F7">
+        <v>305.58999599999999</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBNamedTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,6 +564,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42654.743680555555</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>9848.4</v>
+      </c>
+      <c r="D8">
+        <v>9903.36</v>
+      </c>
+      <c r="E8">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <v>304.58999599999999</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
